--- a/biology/Zoologie/Austinixa/Austinixa.xlsx
+++ b/biology/Zoologie/Austinixa/Austinixa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austinixa est un genre de crabes. Il comprend huit espèces symbiotiques de décapodes de la famille des Pinnotheridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Austinixa aidae (Righi, 1967)
 Austinixa beherae (Manning &amp; Felder, 1989)
@@ -548,7 +562,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Heard &amp; Manning : Austinixa, a new genus of pinnotherid crab (Crustacea: Decapoda: Brachyura), with the description of A. hardyi, a new species from Tobago, West Indies. Proceedings of the Biological Society of Washington, vol. 110, n. 3, p. 393–398.</t>
         </is>
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ng, Guinot &amp; Davie Systema Brachyurorum: Part I. An annotated checklist of extant Brachyuran crabs of the world Raffles Bulletin of Zoology, vol. 17, p. 1–286.</t>
         </is>
